--- a/CoffeShop.Data/Test Case/Test Case.xlsx
+++ b/CoffeShop.Data/Test Case/Test Case.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Test No</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t>Bu butona tıklanıldığında stok'tan kullanılan süt, su ve kahve miktarı düşer. Eğer ekstradan süt, kahve veya su kullanılmışsa, kullanılan üründen 1 birim fazla olarak düşer ve kullanıcı ekranına kalan stock'u yazdırır. Sonrasında kullanıcıya işlemin başarılı olduğuna dair mesaj gösterir.</t>
+  </si>
+  <si>
+    <t>Fiyatın hesaplanması</t>
+  </si>
+  <si>
+    <t>Fiyat ürünü yapmak için gereken  süt, kahve ve su oranlarının, veritabanında belirtilen unit price ile çarpılması durumunda elde edilmesi gerekir. Örneğin: bir kahve yapmak için gerekli olan süt miktarı 2.5 unit, kahve miktarı 1.5 unit, su miktarı 1 unit'tir. Veritabanında ise belirtilen unit price'lar süt için 2 olsun, kahve için 3, su miktarı için 1.5. Bizim elde edeceğimiz fiyat 11 dir. Eğer ekstradan süt eklenirse elde edeceğimiz fiyat 13, kahve eklenirse 14, su eklenirse 12.5 olmalıdır.</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -453,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,19 +538,31 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
